--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H2">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I2">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J2">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>3865.947650737809</v>
+        <v>1623.785066915041</v>
       </c>
       <c r="R2">
-        <v>15463.79060295123</v>
+        <v>6495.140267660165</v>
       </c>
       <c r="S2">
-        <v>0.0207777602458907</v>
+        <v>0.01108451032254885</v>
       </c>
       <c r="T2">
-        <v>0.01185288460594035</v>
+        <v>0.006386418446912039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H3">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I3">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J3">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>2789.793957744939</v>
+        <v>956.7960081824598</v>
       </c>
       <c r="R3">
-        <v>16738.76374646963</v>
+        <v>5740.776049094759</v>
       </c>
       <c r="S3">
-        <v>0.01499390970242347</v>
+        <v>0.006531415669083076</v>
       </c>
       <c r="T3">
-        <v>0.01283014237758352</v>
+        <v>0.005644681492419442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H4">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I4">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J4">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1985.669829032797</v>
+        <v>625.2698111741158</v>
       </c>
       <c r="R4">
-        <v>11914.01897419678</v>
+        <v>3751.618867044695</v>
       </c>
       <c r="S4">
-        <v>0.01067209785607631</v>
+        <v>0.004268304849917854</v>
       </c>
       <c r="T4">
-        <v>0.009132010107999499</v>
+        <v>0.003688820710704793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H5">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I5">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J5">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>3286.468567739304</v>
+        <v>1385.996457757436</v>
       </c>
       <c r="R5">
-        <v>13145.87427095721</v>
+        <v>5543.985831029744</v>
       </c>
       <c r="S5">
-        <v>0.01766331624876268</v>
+        <v>0.009461284227854191</v>
       </c>
       <c r="T5">
-        <v>0.01007621835930182</v>
+        <v>0.005451185335749832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H6">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I6">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J6">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>2859.535231485069</v>
+        <v>482.1852641690757</v>
       </c>
       <c r="R6">
-        <v>17157.21138891042</v>
+        <v>2893.111585014455</v>
       </c>
       <c r="S6">
-        <v>0.01536873822984518</v>
+        <v>0.003291560962694031</v>
       </c>
       <c r="T6">
-        <v>0.01315087949481607</v>
+        <v>0.002844683938160328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.4901675</v>
+        <v>8.056257499999999</v>
       </c>
       <c r="H7">
-        <v>46.980335</v>
+        <v>16.112515</v>
       </c>
       <c r="I7">
-        <v>0.0895297714779042</v>
+        <v>0.03938105858691351</v>
       </c>
       <c r="J7">
-        <v>0.0656452012697491</v>
+        <v>0.02811570820878086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>1870.655971130029</v>
+        <v>694.9524882975215</v>
       </c>
       <c r="R7">
-        <v>11223.93582678018</v>
+        <v>4169.714929785129</v>
       </c>
       <c r="S7">
-        <v>0.01005394919490585</v>
+        <v>0.004743982554815508</v>
       </c>
       <c r="T7">
-        <v>0.008603066324107848</v>
+        <v>0.004099918284834428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H8">
         <v>150.773219</v>
       </c>
       <c r="I8">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J8">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>8271.281615839578</v>
+        <v>10129.73668823732</v>
       </c>
       <c r="R8">
-        <v>49627.68969503747</v>
+        <v>60778.42012942392</v>
       </c>
       <c r="S8">
-        <v>0.04445448357464418</v>
+        <v>0.06914903528383244</v>
       </c>
       <c r="T8">
-        <v>0.03803926826986596</v>
+        <v>0.05976105326337378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H9">
         <v>150.773219</v>
       </c>
       <c r="I9">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J9">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>5968.826678310608</v>
+        <v>5968.826678310611</v>
       </c>
       <c r="R9">
-        <v>53719.44010479548</v>
+        <v>53719.4401047955</v>
       </c>
       <c r="S9">
-        <v>0.03207980574893331</v>
+        <v>0.04074524533898834</v>
       </c>
       <c r="T9">
-        <v>0.04117556561690291</v>
+        <v>0.05282023314434794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H10">
         <v>150.773219</v>
       </c>
       <c r="I10">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J10">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>4248.38508841986</v>
+        <v>3900.650816016561</v>
       </c>
       <c r="R10">
-        <v>38235.46579577874</v>
+        <v>35105.85734414905</v>
       </c>
       <c r="S10">
-        <v>0.02283319247288785</v>
+        <v>0.02662717197968688</v>
       </c>
       <c r="T10">
-        <v>0.0293072103450012</v>
+        <v>0.03451822219354517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H11">
         <v>150.773219</v>
       </c>
       <c r="I11">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J11">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>7031.473134456141</v>
+        <v>8646.32854062763</v>
       </c>
       <c r="R11">
-        <v>42188.83880673684</v>
+        <v>51877.97124376578</v>
       </c>
       <c r="S11">
-        <v>0.03779106086324492</v>
+        <v>0.05902278565895336</v>
       </c>
       <c r="T11">
-        <v>0.03233744240816575</v>
+        <v>0.05100958853640156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H12">
         <v>150.773219</v>
       </c>
       <c r="I12">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J12">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>6118.039696040397</v>
+        <v>3008.039586335505</v>
       </c>
       <c r="R12">
-        <v>55062.35726436358</v>
+        <v>27072.35627701954</v>
       </c>
       <c r="S12">
-        <v>0.03288175978143649</v>
+        <v>0.02053390348558737</v>
       </c>
       <c r="T12">
-        <v>0.04220490198961997</v>
+        <v>0.02661919348990704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.25773966666666</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H13">
         <v>150.773219</v>
       </c>
       <c r="I13">
-        <v>0.1915509520037551</v>
+        <v>0.2456727568922477</v>
       </c>
       <c r="J13">
-        <v>0.2106740683595159</v>
+        <v>0.2630933675532724</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>4002.310362535666</v>
+        <v>4335.355621088211</v>
       </c>
       <c r="R13">
-        <v>36020.793262821</v>
+        <v>39018.20058979389</v>
       </c>
       <c r="S13">
-        <v>0.02151064956260833</v>
+        <v>0.02959461514519938</v>
       </c>
       <c r="T13">
-        <v>0.02760967972996015</v>
+        <v>0.03836507692569693</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H14">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I14">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J14">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>9932.428525999698</v>
+        <v>4417.55466794281</v>
       </c>
       <c r="R14">
-        <v>59594.57115599819</v>
+        <v>26505.32800765686</v>
       </c>
       <c r="S14">
-        <v>0.05338241414967977</v>
+        <v>0.03015573385599927</v>
       </c>
       <c r="T14">
-        <v>0.0456788114369409</v>
+        <v>0.02606165667774471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H15">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I15">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J15">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>7167.564486363167</v>
+        <v>2602.991466257042</v>
       </c>
       <c r="R15">
-        <v>64508.0803772685</v>
+        <v>23426.92319631338</v>
       </c>
       <c r="S15">
-        <v>0.03852249174046429</v>
+        <v>0.01776890696011209</v>
       </c>
       <c r="T15">
-        <v>0.04944498102014943</v>
+        <v>0.02303478112709411</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H16">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I16">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J16">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>5101.601323892291</v>
+        <v>1701.064771043651</v>
       </c>
       <c r="R16">
-        <v>45914.41191503063</v>
+        <v>15309.58293939287</v>
       </c>
       <c r="S16">
-        <v>0.02741885269908472</v>
+        <v>0.01161204792317757</v>
       </c>
       <c r="T16">
-        <v>0.03519306747949678</v>
+        <v>0.01505331661357496</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H17">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I17">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J17">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>8443.625496528763</v>
+        <v>3770.643816395505</v>
       </c>
       <c r="R17">
-        <v>50661.75297917258</v>
+        <v>22623.86289837303</v>
       </c>
       <c r="S17">
-        <v>0.04538075577393866</v>
+        <v>0.02573969988829672</v>
       </c>
       <c r="T17">
-        <v>0.03883187036186235</v>
+        <v>0.02224516321440868</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H18">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I18">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J18">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>7346.744413076303</v>
+        <v>1311.799084709027</v>
       </c>
       <c r="R18">
-        <v>66120.69971768673</v>
+        <v>11806.19176238125</v>
       </c>
       <c r="S18">
-        <v>0.03948550466626305</v>
+        <v>0.008954787669769928</v>
       </c>
       <c r="T18">
-        <v>0.05068104218044715</v>
+        <v>0.01160856852229531</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.351156</v>
+        <v>21.91728366666667</v>
       </c>
       <c r="H19">
-        <v>181.053468</v>
+        <v>65.751851</v>
       </c>
       <c r="I19">
-        <v>0.2300207184604941</v>
+        <v>0.1071373193003082</v>
       </c>
       <c r="J19">
-        <v>0.2529843890522722</v>
+        <v>0.1147344071923741</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>4806.106654454461</v>
+        <v>1890.63852798556</v>
       </c>
       <c r="R19">
-        <v>43254.95989009015</v>
+        <v>17015.74675187004</v>
       </c>
       <c r="S19">
-        <v>0.02583069943106356</v>
+        <v>0.01290614300295262</v>
       </c>
       <c r="T19">
-        <v>0.03315461657337561</v>
+        <v>0.01673092103725637</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H20">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I20">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J20">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>7892.698815163053</v>
+        <v>6566.818130098341</v>
       </c>
       <c r="R20">
-        <v>31570.79526065221</v>
+        <v>26267.27252039337</v>
       </c>
       <c r="S20">
-        <v>0.04241976831817312</v>
+        <v>0.04482733881009665</v>
       </c>
       <c r="T20">
-        <v>0.02419878817234262</v>
+        <v>0.02582758598910723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H21">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I21">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J21">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>5695.628977448839</v>
+        <v>3869.419359346184</v>
       </c>
       <c r="R21">
-        <v>34173.77386469304</v>
+        <v>23216.5161560771</v>
       </c>
       <c r="S21">
-        <v>0.0306114888338941</v>
+        <v>0.02641397541143125</v>
       </c>
       <c r="T21">
-        <v>0.02619395260631649</v>
+        <v>0.02282789607954313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H22">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I22">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J22">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>4053.933297291584</v>
+        <v>2528.680190428296</v>
       </c>
       <c r="R22">
-        <v>24323.59978374951</v>
+        <v>15172.08114256978</v>
       </c>
       <c r="S22">
-        <v>0.02178810002455212</v>
+        <v>0.01726163286282628</v>
       </c>
       <c r="T22">
-        <v>0.01864386480911325</v>
+        <v>0.0149181164522964</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H23">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I23">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J23">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>6709.637303473623</v>
+        <v>5605.167120021199</v>
       </c>
       <c r="R23">
-        <v>26838.54921389449</v>
+        <v>22420.66848008479</v>
       </c>
       <c r="S23">
-        <v>0.03606133549217955</v>
+        <v>0.03826278124328702</v>
       </c>
       <c r="T23">
-        <v>0.02057155551255532</v>
+        <v>0.02204537005709584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H24">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I24">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J24">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>5838.012402768019</v>
+        <v>1950.02589894948</v>
       </c>
       <c r="R24">
-        <v>35028.07441660812</v>
+        <v>11700.15539369688</v>
       </c>
       <c r="S24">
-        <v>0.03137673682521287</v>
+        <v>0.0133115414389225</v>
       </c>
       <c r="T24">
-        <v>0.02684876785314918</v>
+        <v>0.01150430709096315</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>47.957405</v>
+        <v>32.580653</v>
       </c>
       <c r="H25">
-        <v>95.91481</v>
+        <v>65.161306</v>
       </c>
       <c r="I25">
-        <v>0.1827835203952164</v>
+        <v>0.1592626110315987</v>
       </c>
       <c r="J25">
-        <v>0.1340209048573141</v>
+        <v>0.1137039292747955</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>3819.121597287509</v>
+        <v>2810.486863498109</v>
       </c>
       <c r="R25">
-        <v>22914.72958372505</v>
+        <v>16862.92118098865</v>
       </c>
       <c r="S25">
-        <v>0.02052609090120469</v>
+        <v>0.01918534126503498</v>
       </c>
       <c r="T25">
-        <v>0.01756397590383727</v>
+        <v>0.01658065360578974</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H26">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I26">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J26">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>1342.889907985366</v>
+        <v>6484.517070010783</v>
       </c>
       <c r="R26">
-        <v>8057.339447912195</v>
+        <v>38907.10242006469</v>
       </c>
       <c r="S26">
-        <v>0.007217439827314026</v>
+        <v>0.04426552372219808</v>
       </c>
       <c r="T26">
-        <v>0.006175892907445856</v>
+        <v>0.03825583842254874</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H27">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I27">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J27">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>969.0731716191866</v>
+        <v>3820.924440058272</v>
       </c>
       <c r="R27">
-        <v>8721.65854457268</v>
+        <v>34388.31996052445</v>
       </c>
       <c r="S27">
-        <v>0.005208340060369309</v>
+        <v>0.02608293256321779</v>
       </c>
       <c r="T27">
-        <v>0.006685088731187577</v>
+        <v>0.0338126956314868</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H28">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I28">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J28">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>689.749633182505</v>
+        <v>2496.988577203804</v>
       </c>
       <c r="R28">
-        <v>6207.746698642545</v>
+        <v>22472.89719483424</v>
       </c>
       <c r="S28">
-        <v>0.003707099475395641</v>
+        <v>0.01704529510909111</v>
       </c>
       <c r="T28">
-        <v>0.004758193328605648</v>
+        <v>0.02209672451806032</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H29">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I29">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J29">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>1141.599905442576</v>
+        <v>5534.918304414246</v>
       </c>
       <c r="R29">
-        <v>6849.599432655456</v>
+        <v>33209.50982648548</v>
       </c>
       <c r="S29">
-        <v>0.006135595014456659</v>
+        <v>0.03778323888413633</v>
       </c>
       <c r="T29">
-        <v>0.005250168846484843</v>
+        <v>0.03265361753999157</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H30">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I30">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J30">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>993.2987590137267</v>
+        <v>1925.586483162076</v>
       </c>
       <c r="R30">
-        <v>8939.68883112354</v>
+        <v>17330.27834845868</v>
       </c>
       <c r="S30">
-        <v>0.005338541887236665</v>
+        <v>0.01314470965675369</v>
       </c>
       <c r="T30">
-        <v>0.006852207382328278</v>
+        <v>0.01704018770553636</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.159631666666668</v>
+        <v>32.172324</v>
       </c>
       <c r="H31">
-        <v>24.478895</v>
+        <v>96.51697200000001</v>
       </c>
       <c r="I31">
-        <v>0.03109939332959364</v>
+        <v>0.1572665938646032</v>
       </c>
       <c r="J31">
-        <v>0.0342041407141106</v>
+        <v>0.1684183395296807</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>649.7979931165529</v>
+        <v>2775.263404640936</v>
       </c>
       <c r="R31">
-        <v>5848.181938048976</v>
+        <v>24977.37064176842</v>
       </c>
       <c r="S31">
-        <v>0.003492377064821342</v>
+        <v>0.01894489392920625</v>
       </c>
       <c r="T31">
-        <v>0.004482589518058396</v>
+        <v>0.0245592757120569</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H32">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I32">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J32">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>11875.33561825122</v>
+        <v>12010.22978310447</v>
       </c>
       <c r="R32">
-        <v>71252.0137095073</v>
+        <v>72061.3786986268</v>
       </c>
       <c r="S32">
-        <v>0.06382468119257113</v>
+        <v>0.08198592210231881</v>
       </c>
       <c r="T32">
-        <v>0.05461415755839911</v>
+        <v>0.07085514696615071</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H33">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I33">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J33">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>8569.629634707486</v>
+        <v>7076.884834062639</v>
       </c>
       <c r="R33">
-        <v>77126.66671236737</v>
+        <v>63691.96350656376</v>
       </c>
       <c r="S33">
-        <v>0.04605797233494614</v>
+        <v>0.04830922798402668</v>
       </c>
       <c r="T33">
-        <v>0.05911703695781055</v>
+        <v>0.06262582698693608</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H34">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I34">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J34">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>6099.538270338371</v>
+        <v>4624.771012894396</v>
       </c>
       <c r="R34">
-        <v>54895.84443304534</v>
+        <v>41622.93911604957</v>
       </c>
       <c r="S34">
-        <v>0.03278232279413779</v>
+        <v>0.03157026325488115</v>
       </c>
       <c r="T34">
-        <v>0.04207727109848214</v>
+        <v>0.04092621486698028</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H35">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I35">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J35">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>10095.30411858764</v>
+        <v>10251.44046179764</v>
       </c>
       <c r="R35">
-        <v>60571.82471152585</v>
+        <v>61508.64277078587</v>
       </c>
       <c r="S35">
-        <v>0.05425779848450225</v>
+        <v>0.06997982672403549</v>
       </c>
       <c r="T35">
-        <v>0.04642786927934364</v>
+        <v>0.06047905274528902</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H36">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I36">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J36">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>8783.859393341261</v>
+        <v>3566.454661207036</v>
       </c>
       <c r="R36">
-        <v>79054.73454007137</v>
+        <v>32098.09195086333</v>
       </c>
       <c r="S36">
-        <v>0.04720936261866562</v>
+        <v>0.02434583511853435</v>
       </c>
       <c r="T36">
-        <v>0.06059488712152397</v>
+        <v>0.03156080363134629</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.15659599999999</v>
+        <v>59.58763</v>
       </c>
       <c r="H37">
-        <v>216.469788</v>
+        <v>178.76289</v>
       </c>
       <c r="I37">
-        <v>0.2750156443330367</v>
+        <v>0.2912796603243287</v>
       </c>
       <c r="J37">
-        <v>0.302471295747038</v>
+        <v>0.3119342482410964</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>5746.241152338193</v>
+        <v>5140.174794593153</v>
       </c>
       <c r="R37">
-        <v>51716.17037104374</v>
+        <v>46261.57315133837</v>
       </c>
       <c r="S37">
-        <v>0.03088350690821371</v>
+        <v>0.03508858514053222</v>
       </c>
       <c r="T37">
-        <v>0.03964007373147861</v>
+        <v>0.04548720304439409</v>
       </c>
     </row>
   </sheetData>
